--- a/Project Requests/Scrum_Meeting_DailyNotes.xlsx
+++ b/Project Requests/Scrum_Meeting_DailyNotes.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kavp8\Desktop\TO USE GIT\WebDevelopment_I_GIT_Uniform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kavp8\Desktop\TO USE GIT\JustSell_GitRepo\RealEstateProperties-Project\Project Requests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20AA2925-254C-4233-B20B-83CBBA112FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA82924C-95E5-4620-99D2-7B090947F253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="4635" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6300" yWindow="4635" windowWidth="21600" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="5min Daily Report" sheetId="1" r:id="rId1"/>
+    <sheet name="Project_JustSell" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>Name</t>
   </si>
@@ -82,6 +83,69 @@
   </si>
   <si>
     <t>JustSell - Real State Properties</t>
+  </si>
+  <si>
+    <t>1. Home Page:</t>
+  </si>
+  <si>
+    <t>  ○ Display an overview of the website, highlighting key features, offers, and search functionality.</t>
+  </si>
+  <si>
+    <t>2. User Registration &amp; Login Page:</t>
+  </si>
+  <si>
+    <t>  ○ Allow users to register or login to their accounts.</t>
+  </si>
+  <si>
+    <t>3. User Profile Page:</t>
+  </si>
+  <si>
+    <t>  ○ Enable registered users to modify their profile details.</t>
+  </si>
+  <si>
+    <t>4. Accommodation Listings Page:</t>
+  </si>
+  <si>
+    <t>  ○ Display a list of accommodations with essential information like address, description, listing agent, and price.</t>
+  </si>
+  <si>
+    <t>5. Accommodation Details Page:</t>
+  </si>
+  <si>
+    <t>  ○ Provide detailed information about a specific accommodation, including images and additional details.</t>
+  </si>
+  <si>
+    <t>  ○ Allow users to submit an offer for a particular accommodation.</t>
+  </si>
+  <si>
+    <t>6. Search Results Page:</t>
+  </si>
+  <si>
+    <t>  ○ Show search results based on user input with the option to filter the results</t>
+  </si>
+  <si>
+    <t>7. Checkout Page:</t>
+  </si>
+  <si>
+    <t>  ○ Confirm the offer with the user and indicate how much it is above or below the asking price.</t>
+  </si>
+  <si>
+    <t>8. Admin Panel:</t>
+  </si>
+  <si>
+    <t>  ○Provide access to administrative functions to manage users, agents, properties, and offers.</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>RESPONSIBLE</t>
+  </si>
+  <si>
+    <t>PROJECT STATUS TABLE</t>
   </si>
 </sst>
 </file>
@@ -160,7 +224,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -183,11 +247,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thick">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -204,37 +348,86 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -524,86 +717,86 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="13" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" style="12" customWidth="1"/>
     <col min="2" max="2" width="25.140625" style="1" customWidth="1"/>
     <col min="3" max="8" width="22.28515625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:8" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="80.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2"/>
@@ -614,8 +807,8 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="80.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="3"/>
@@ -626,8 +819,8 @@
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" ht="80.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="3"/>
@@ -638,8 +831,8 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="12"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -648,10 +841,10 @@
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" ht="80.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="3"/>
@@ -662,8 +855,8 @@
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" ht="80.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="14"/>
+      <c r="B11" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="3"/>
@@ -674,8 +867,8 @@
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" ht="80.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="3"/>
@@ -686,8 +879,8 @@
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="12"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -696,10 +889,10 @@
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" ht="80.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="3"/>
@@ -710,8 +903,8 @@
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" ht="80.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="14"/>
+      <c r="B15" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="3"/>
@@ -722,8 +915,8 @@
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" ht="80.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="11" t="s">
+      <c r="A16" s="14"/>
+      <c r="B16" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="3"/>
@@ -745,4 +938,250 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D593E4D8-7C62-4E72-993F-4A488B57CE5B}">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="106.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="25.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="27"/>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="28"/>
+      <c r="B6" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="29"/>
+    </row>
+    <row r="7" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="28"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="30"/>
+    </row>
+    <row r="8" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="27"/>
+    </row>
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="28"/>
+      <c r="B9" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="29"/>
+    </row>
+    <row r="10" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="28"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="30"/>
+    </row>
+    <row r="11" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="27"/>
+    </row>
+    <row r="12" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="28"/>
+      <c r="B12" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="29"/>
+    </row>
+    <row r="13" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="28"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="30"/>
+    </row>
+    <row r="14" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="27"/>
+    </row>
+    <row r="15" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="28"/>
+      <c r="B15" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="29"/>
+    </row>
+    <row r="16" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="28"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="30"/>
+    </row>
+    <row r="17" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="27"/>
+    </row>
+    <row r="18" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="28"/>
+      <c r="B18" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="29"/>
+    </row>
+    <row r="19" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="28"/>
+      <c r="B19" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="29"/>
+    </row>
+    <row r="20" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="28"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="30"/>
+    </row>
+    <row r="21" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="20"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="27"/>
+    </row>
+    <row r="22" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="28"/>
+      <c r="B22" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="29"/>
+    </row>
+    <row r="23" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="28"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="30"/>
+    </row>
+    <row r="24" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="20"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="27"/>
+    </row>
+    <row r="25" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="28"/>
+      <c r="B25" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="29"/>
+    </row>
+    <row r="26" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="28"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="30"/>
+    </row>
+    <row r="27" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="20"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="27"/>
+    </row>
+    <row r="28" spans="1:4" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="31"/>
+      <c r="B28" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="32"/>
+      <c r="D28" s="33"/>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>